--- a/FSM Table.xlsx
+++ b/FSM Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97ran\Desktop\Lexical-Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13244A8-A4B1-435D-AA17-7A55A8896415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243EBEE0-32A3-467C-959A-33F0DFE15BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10040" xr2:uid="{64FDED9E-DD93-470E-A362-5A4DBBF53418}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/FSM Table.xlsx
+++ b/FSM Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97ran\Desktop\Lexical-Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243EBEE0-32A3-467C-959A-33F0DFE15BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1EE249-F408-4749-B05F-8FB1EC2B58BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10040" xr2:uid="{64FDED9E-DD93-470E-A362-5A4DBBF53418}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>letter</t>
   </si>
@@ -68,16 +68,25 @@
     <t>5: In Operator</t>
   </si>
   <si>
-    <t>8: End of Digit</t>
-  </si>
-  <si>
-    <t>6: In Finding Digit</t>
-  </si>
-  <si>
     <t>7: In Comment</t>
   </si>
   <si>
-    <t>9: End of Comment</t>
+    <t>10: Dead State</t>
+  </si>
+  <si>
+    <t>6: In Finding Integers</t>
+  </si>
+  <si>
+    <t>8: End of Integer</t>
+  </si>
+  <si>
+    <t>9: In Float / Double</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>epsilon</t>
   </si>
 </sst>
 </file>
@@ -455,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B2D69D-8FAA-4DFD-B32B-6E7B249B3EEF}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,6 +490,12 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J1" t="s">
         <v>6</v>
       </c>
@@ -504,6 +519,12 @@
       <c r="F2">
         <v>7</v>
       </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
@@ -527,6 +548,12 @@
       <c r="F3">
         <v>3</v>
       </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
@@ -550,6 +577,12 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
       <c r="J4" t="s">
         <v>9</v>
       </c>
@@ -573,6 +606,12 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
       <c r="J5" t="s">
         <v>10</v>
       </c>
@@ -596,6 +635,12 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
@@ -619,8 +664,14 @@
       <c r="F7">
         <v>8</v>
       </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -640,10 +691,16 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -651,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -665,8 +722,14 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -674,22 +737,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -711,7 +780,15 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FSM Table.xlsx
+++ b/FSM Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97ran\Desktop\Lexical-Analyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\97randy\Desktop\Lexical-Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1EE249-F408-4749-B05F-8FB1EC2B58BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAD0F7D-72E6-4A54-BA0C-9EA698DE23CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10040" xr2:uid="{64FDED9E-DD93-470E-A362-5A4DBBF53418}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10035" xr2:uid="{64FDED9E-DD93-470E-A362-5A4DBBF53418}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,15 +465,15 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -529,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -558,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -616,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -645,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -674,7 +674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -703,7 +703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -732,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -761,7 +761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
